--- a/olsinka_tt.xlsx
+++ b/olsinka_tt.xlsx
@@ -397,7 +397,9 @@
       <c r="C2" t="n">
         <v>41.7386608483617</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="n">
         <v>56.5611091537428</v>
       </c>
@@ -412,7 +414,9 @@
       <c r="C3" t="n">
         <v>63.5069640653961</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="n">
         <v>10.2008413150002</v>
       </c>
@@ -427,7 +431,9 @@
       <c r="C4" t="n">
         <v>52.133064176766</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" t="n">
         <v>21.4416715167584</v>
       </c>
@@ -442,7 +448,9 @@
       <c r="C5" t="n">
         <v>40.1944855708758</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="n">
         <v>41.7311074125089</v>
       </c>
@@ -491,7 +499,9 @@
       <c r="C8" t="n">
         <v>131.301580398891</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" t="n">
         <v>88.0167517113928</v>
       </c>
@@ -506,7 +516,9 @@
       <c r="C9" t="n">
         <v>76.782792682496</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" t="n">
         <v>83.0680732414825</v>
       </c>
@@ -521,7 +533,9 @@
       <c r="C10" t="n">
         <v>75.0288391610604</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" t="n">
         <v>36.5640081008586</v>
       </c>
@@ -536,7 +550,9 @@
       <c r="C11" t="n">
         <v>98.8100848160712</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" t="n">
         <v>47.1071231333544</v>
       </c>
@@ -585,8 +601,12 @@
       <c r="C14" t="n">
         <v>108.284627351784</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -601,7 +621,9 @@
       <c r="D15" t="n">
         <v>44.6790268062146</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -633,7 +655,9 @@
       <c r="D17" t="n">
         <v>43.2625795459753</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
